--- a/form_collectdata/form_collect/DataCollected/final_new.xlsx
+++ b/form_collectdata/form_collect/DataCollected/final_new.xlsx
@@ -487,12 +487,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK6"/>
+  <dimension ref="A1:BK19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1257,10 +1257,645 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Phạm Thành Đạt</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B20DCDT049</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>D20DTMT1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Phạm Hoàng Anh</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Nguyễn Trọng Đức</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B20DCDT057</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>D20XLTH</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Phạm Hoàng Anh</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Đào Huy Hùng</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B20DCDT081</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>D20DTMT1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Phạm Hoàng Anh</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ngô Hải Long</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>B20DCDT119</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>D20DTRB</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Phạm Văn Sự</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Nguyễn Xuân Khoa</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B20DCDT111</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>D20DTRB</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Phạm Văn Sự</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Nguyễn Trọng Hưởng</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B20DCDT099</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>D20DTMT2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Phạm Văn Sự</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Nguyễn Quang Hưng</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B20DCDT098</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>D20DTMT1</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>Phạm Văn Sự</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Giáp Thị Huyền</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>B20DCDT092</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>D20DTMT2</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>Trần Thị Thúy Hà</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Tạ Ngọc Bích</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>B20DCDT020</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>D20DTMT2</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Lương Công Duẩn</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Nguyễn Xuân Mai</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>B20DCDT127</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>D20DTMT2</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Trần Tuấn Anh</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BC16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BD16" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>La Thị Hồng Nhung</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>B20DCDT158</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>D20XLTH</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Phạm Hoàng Anh</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Nguyễn Trung Tuấn</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>B20DCDT190</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>D20XLTH</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Phạm Hoàng Anh</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Tạ Hồng Hải</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>B20DCDT064</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>D20XLTH</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr"/>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Lê Đức Toàn</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+      <c r="AZ19" t="inlineStr"/>
+      <c r="BA19" t="inlineStr"/>
+      <c r="BB19" t="inlineStr"/>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="inlineStr"/>
+      <c r="BF19" t="inlineStr"/>
+      <c r="BG19" t="inlineStr"/>
+      <c r="BH19" t="inlineStr"/>
+      <c r="BI19" t="inlineStr"/>
+      <c r="BJ19" t="inlineStr"/>
+      <c r="BK19" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/form_collectdata/form_collect/DataCollected/final_new.xlsx
+++ b/form_collectdata/form_collect/DataCollected/final_new.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -45,8 +45,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,10 +134,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -169,69 +175,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -255,54 +263,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -312,7 +319,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -321,7 +328,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -330,7 +337,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -338,10 +345,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -370,7 +377,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -383,13 +390,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -409,341 +415,394 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK3"/>
+  <dimension ref="A1:BK5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="23.21875" customWidth="1" min="1" max="1"/>
-    <col width="16.109375" customWidth="1" min="2" max="2"/>
-    <col width="16.88671875" customWidth="1" min="3" max="3"/>
-    <col width="24.33203125" customWidth="1" min="4" max="4"/>
-    <col width="22.44140625" customWidth="1" min="5" max="5"/>
-    <col width="21.33203125" customWidth="1" min="6" max="6"/>
-    <col width="23" customWidth="1" min="7" max="7"/>
-    <col width="16.109375" customWidth="1" min="9" max="9"/>
-    <col width="14.77734375" customWidth="1" min="10" max="10"/>
-    <col width="20.5546875" customWidth="1" min="11" max="11"/>
+    <col width="23.29071428571428" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="16.14785714285714" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="16.86214285714286" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="24.29071428571428" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col width="22.43357142857143" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
+    <col width="21.29071428571428" bestFit="1" customWidth="1" style="2" min="6" max="6"/>
+    <col width="23.005" bestFit="1" customWidth="1" style="2" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="8" max="8"/>
+    <col width="16.14785714285714" bestFit="1" customWidth="1" style="2" min="9" max="9"/>
+    <col width="14.71928571428571" bestFit="1" customWidth="1" style="2" min="10" max="10"/>
+    <col width="20.57642857142857" bestFit="1" customWidth="1" style="2" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="12" max="12"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="13" max="13"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="15" max="15"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="16" max="16"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="17" max="17"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="19" max="19"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="21" max="21"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="23" max="23"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="24" max="24"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="25" max="25"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="26" max="26"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="27" max="27"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="28" max="28"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="29" max="29"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="30" max="30"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="31" max="31"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="32" max="32"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="33" max="33"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="34" max="34"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="35" max="35"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="36" max="36"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="37" max="37"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="38" max="38"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="39" max="39"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="40" max="40"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="41" max="41"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="42" max="42"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="43" max="43"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="44" max="44"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="45" max="45"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="46" max="46"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="47" max="47"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="48" max="48"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="49" max="49"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="50" max="50"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="51" max="51"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="52" max="52"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="53" max="53"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="54" max="54"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="55" max="55"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="56" max="56"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="57" max="57"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="58" max="58"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="59" max="59"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="60" max="60"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="61" max="61"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="62" max="62"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="63" max="63"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Họ và tên</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Mã sinh viên</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Lớp</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv1-họ tên</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv1_C3.3</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv1_C4.2</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv1_C5.3</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv1_C6.3</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv1_C6.4</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv1_gpa</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv2-họ tên</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv2_C3.3</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv2_C4.2</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv2_C5.3</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv2_C6.3</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv2_C6.4</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv2_gpa</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv3-họ tên</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv3_C3.3</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv3_C4.2</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv3_C5.3</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="V1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv3_C6.3</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="W1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv3_C6.4</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv3_gpa</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Y1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv4-họ tên</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="Z1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv4_C3.3</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv4_C4.2</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AB1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv4_C5.3</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AC1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv4_C6.3</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AD1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv4_C6.4</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AE1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv4_gpa</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AF1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv5-họ tên</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AG1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv5_C3.3</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AH1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv5_C4.2</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AI1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv5_C5.3</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AJ1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv5_C6.3</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AK1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv5_C6.4</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AL1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> HDCM_uv5_gpa</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AM1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> CBHD_1-họ tên</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AN1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> CBHD_1_C1.1</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AO1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> CBHD_1_C1.2</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AP1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> CBHD_1_C5.1</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AQ1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> CBHD_1_gpa</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AR1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> CBHD_2-họ tên</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AS1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> CBHD_2_C2.1</t>
         </is>
       </c>
-      <c r="AT1" t="inlineStr">
+      <c r="AT1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> CBHD_2_C2.2</t>
         </is>
       </c>
-      <c r="AU1" t="inlineStr">
+      <c r="AU1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> CBHD_2_C3.1</t>
         </is>
       </c>
-      <c r="AV1" t="inlineStr">
+      <c r="AV1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> CBHD_2_C5.2</t>
         </is>
       </c>
-      <c r="AW1" t="inlineStr">
+      <c r="AW1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> CBHD_2_gpa</t>
         </is>
       </c>
-      <c r="AX1" t="inlineStr">
+      <c r="AX1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> CBHD_3-họ tên</t>
         </is>
       </c>
-      <c r="AY1" t="inlineStr">
+      <c r="AY1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> CBHD_3_C2.3</t>
         </is>
       </c>
-      <c r="AZ1" t="inlineStr">
+      <c r="AZ1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> CBHD_3_C3.2</t>
         </is>
       </c>
-      <c r="BA1" t="inlineStr">
+      <c r="BA1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> CBHD_3_C4.1</t>
         </is>
       </c>
-      <c r="BB1" t="inlineStr">
+      <c r="BB1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> CBHD_3_C6.1</t>
         </is>
       </c>
-      <c r="BC1" t="inlineStr">
+      <c r="BC1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> CBHD_3_C6.2</t>
         </is>
       </c>
-      <c r="BD1" t="inlineStr">
+      <c r="BD1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> CBHD_3_gpa</t>
         </is>
       </c>
-      <c r="BE1" t="inlineStr">
+      <c r="BE1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> CBPB-họ tên</t>
         </is>
       </c>
-      <c r="BF1" t="inlineStr">
+      <c r="BF1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> CBPB_C2.3</t>
         </is>
       </c>
-      <c r="BG1" t="inlineStr">
+      <c r="BG1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> CBPB_C3.2</t>
         </is>
       </c>
-      <c r="BH1" t="inlineStr">
+      <c r="BH1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> CBPB_C4.1</t>
         </is>
       </c>
-      <c r="BI1" t="inlineStr">
+      <c r="BI1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> CBPB_C6.1</t>
         </is>
       </c>
-      <c r="BJ1" t="inlineStr">
+      <c r="BJ1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> CBPB_C6.2</t>
         </is>
       </c>
-      <c r="BK1" t="inlineStr">
+      <c r="BK1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> CBPB_gpa</t>
         </is>
@@ -752,303 +811,247 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>La Thị Hồng Nhung</t>
+          <t>Phạm Tiến Dũng</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B20DCDT158</t>
+          <t>B20DCDT033</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>D20XLTH</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Phạm Hoàng Anh</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Trương Minh Đức</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>Trần Thị Thục Linh</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
+          <t>D20DTMT1</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>Trần Tuấn Anh</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>Trần Thị Thục Linh</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AV2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>Trần Thị Thục Linh</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="BA2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="BB2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="BC2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="BD2" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
-      </c>
-      <c r="BE2" t="inlineStr">
-        <is>
-          <t>Trương Minh Đức</t>
-        </is>
-      </c>
-      <c r="BF2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="BG2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="BH2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="BI2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>6.2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nguyễn Trung Tuấn</t>
+          <t>Nguyễn Xuân Dương</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B20DCDT190</t>
+          <t>B20DCDT041</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>D20XLTH</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Phạm Hoàng Anh</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+          <t>D20DTMT1</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>Trần Tuấn Anh</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>6.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Đỗ Văn Hảo</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B20DCDT066</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>D20DTMT1</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>Trần Tuấn Anh</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>7.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Lưu Thị Mai</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>B20DCDT125</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>D20DTMT1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Trần Tuấn Anh</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Trương Minh Đức</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>9.0</t>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Trần Tuấn Anh</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>8.0</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/form_collectdata/form_collect/DataCollected/final_new.xlsx
+++ b/form_collectdata/form_collect/DataCollected/final_new.xlsx
@@ -1050,6 +1050,111 @@
           <t>8.0</t>
         </is>
       </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Trần Tuấn Anh</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Trần Tuấn Anh</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Trần Tuấn Anh</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/form_collectdata/form_collect/DataCollected/final_new.xlsx
+++ b/form_collectdata/form_collect/DataCollected/final_new.xlsx
@@ -418,13 +418,13 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK5"/>
+  <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="23.29071428571428" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
     <col width="16.14785714285714" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
@@ -499,468 +499,468 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mã sinh viên</t>
+          <t>Mã sinh viên</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lớp</t>
+          <t>Lớp</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv1-họ tên</t>
+          <t>HDCM_uv1-họ tên</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv1_C3.3</t>
+          <t>HDCM_uv1_C3.3</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv1_C4.2</t>
+          <t>HDCM_uv1_C4.2</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv1_C5.3</t>
+          <t>HDCM_uv1_C5.3</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv1_C6.3</t>
+          <t>HDCM_uv1_C6.3</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv1_C6.4</t>
+          <t>HDCM_uv1_C6.4</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv1_gpa</t>
+          <t>HDCM_uv1_gpa</t>
         </is>
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv2-họ tên</t>
+          <t>HDCM_uv2-họ tên</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv2_C3.3</t>
+          <t>HDCM_uv2_C3.3</t>
         </is>
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv2_C4.2</t>
+          <t>HDCM_uv2_C4.2</t>
         </is>
       </c>
       <c r="N1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv2_C5.3</t>
+          <t>HDCM_uv2_C5.3</t>
         </is>
       </c>
       <c r="O1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv2_C6.3</t>
+          <t>HDCM_uv2_C6.3</t>
         </is>
       </c>
       <c r="P1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv2_C6.4</t>
+          <t>HDCM_uv2_C6.4</t>
         </is>
       </c>
       <c r="Q1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv2_gpa</t>
+          <t>HDCM_uv2_gpa</t>
         </is>
       </c>
       <c r="R1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv3-họ tên</t>
+          <t>HDCM_uv3-họ tên</t>
         </is>
       </c>
       <c r="S1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv3_C3.3</t>
+          <t>HDCM_uv3_C3.3</t>
         </is>
       </c>
       <c r="T1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv3_C4.2</t>
+          <t>HDCM_uv3_C4.2</t>
         </is>
       </c>
       <c r="U1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv3_C5.3</t>
+          <t>HDCM_uv3_C5.3</t>
         </is>
       </c>
       <c r="V1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv3_C6.3</t>
+          <t>HDCM_uv3_C6.3</t>
         </is>
       </c>
       <c r="W1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv3_C6.4</t>
+          <t>HDCM_uv3_C6.4</t>
         </is>
       </c>
       <c r="X1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv3_gpa</t>
+          <t>HDCM_uv3_gpa</t>
         </is>
       </c>
       <c r="Y1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv4-họ tên</t>
+          <t>HDCM_uv4-họ tên</t>
         </is>
       </c>
       <c r="Z1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv4_C3.3</t>
+          <t>HDCM_uv4_C3.3</t>
         </is>
       </c>
       <c r="AA1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv4_C4.2</t>
+          <t>HDCM_uv4_C4.2</t>
         </is>
       </c>
       <c r="AB1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv4_C5.3</t>
+          <t>HDCM_uv4_C5.3</t>
         </is>
       </c>
       <c r="AC1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv4_C6.3</t>
+          <t>HDCM_uv4_C6.3</t>
         </is>
       </c>
       <c r="AD1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv4_C6.4</t>
+          <t>HDCM_uv4_C6.4</t>
         </is>
       </c>
       <c r="AE1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv4_gpa</t>
+          <t>HDCM_uv4_gpa</t>
         </is>
       </c>
       <c r="AF1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv5-họ tên</t>
+          <t>HDCM_uv5-họ tên</t>
         </is>
       </c>
       <c r="AG1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv5_C3.3</t>
+          <t>HDCM_uv5_C3.3</t>
         </is>
       </c>
       <c r="AH1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv5_C4.2</t>
+          <t>HDCM_uv5_C4.2</t>
         </is>
       </c>
       <c r="AI1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv5_C5.3</t>
+          <t>HDCM_uv5_C5.3</t>
         </is>
       </c>
       <c r="AJ1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv5_C6.3</t>
+          <t>HDCM_uv5_C6.3</t>
         </is>
       </c>
       <c r="AK1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv5_C6.4</t>
+          <t>HDCM_uv5_C6.4</t>
         </is>
       </c>
       <c r="AL1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HDCM_uv5_gpa</t>
+          <t>HDCM_uv5_gpa</t>
         </is>
       </c>
       <c r="AM1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CBHD_1-họ tên</t>
+          <t>CBHD_1-họ tên</t>
         </is>
       </c>
       <c r="AN1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CBHD_1_C1.1</t>
+          <t>CBHD_1_C1.1</t>
         </is>
       </c>
       <c r="AO1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CBHD_1_C1.2</t>
+          <t>CBHD_1_C1.2</t>
         </is>
       </c>
       <c r="AP1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CBHD_1_C5.1</t>
+          <t>CBHD_1_C5.1</t>
         </is>
       </c>
       <c r="AQ1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CBHD_1_gpa</t>
+          <t>CBHD_1_gpa</t>
         </is>
       </c>
       <c r="AR1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CBHD_2-họ tên</t>
+          <t>CBHD_2-họ tên</t>
         </is>
       </c>
       <c r="AS1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CBHD_2_C2.1</t>
+          <t>CBHD_2_C2.1</t>
         </is>
       </c>
       <c r="AT1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CBHD_2_C2.2</t>
+          <t>CBHD_2_C2.2</t>
         </is>
       </c>
       <c r="AU1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CBHD_2_C3.1</t>
+          <t>CBHD_2_C3.1</t>
         </is>
       </c>
       <c r="AV1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CBHD_2_C5.2</t>
+          <t>CBHD_2_C5.2</t>
         </is>
       </c>
       <c r="AW1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CBHD_2_gpa</t>
+          <t>CBHD_2_gpa</t>
         </is>
       </c>
       <c r="AX1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CBHD_3-họ tên</t>
+          <t>CBHD_3-họ tên</t>
         </is>
       </c>
       <c r="AY1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CBHD_3_C2.3</t>
+          <t>CBHD_3_C2.3</t>
         </is>
       </c>
       <c r="AZ1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CBHD_3_C3.2</t>
+          <t>CBHD_3_C3.2</t>
         </is>
       </c>
       <c r="BA1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CBHD_3_C4.1</t>
+          <t>CBHD_3_C4.1</t>
         </is>
       </c>
       <c r="BB1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CBHD_3_C6.1</t>
+          <t>CBHD_3_C6.1</t>
         </is>
       </c>
       <c r="BC1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CBHD_3_C6.2</t>
+          <t>CBHD_3_C6.2</t>
         </is>
       </c>
       <c r="BD1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CBHD_3_gpa</t>
+          <t>CBHD_3_gpa</t>
         </is>
       </c>
       <c r="BE1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CBPB-họ tên</t>
+          <t>CBPB-họ tên</t>
         </is>
       </c>
       <c r="BF1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CBPB_C2.3</t>
+          <t>CBPB_C2.3</t>
         </is>
       </c>
       <c r="BG1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CBPB_C3.2</t>
+          <t>CBPB_C3.2</t>
         </is>
       </c>
       <c r="BH1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CBPB_C4.1</t>
+          <t>CBPB_C4.1</t>
         </is>
       </c>
       <c r="BI1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CBPB_C6.1</t>
+          <t>CBPB_C6.1</t>
         </is>
       </c>
       <c r="BJ1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CBPB_C6.2</t>
+          <t>CBPB_C6.2</t>
         </is>
       </c>
       <c r="BK1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CBPB_gpa</t>
+          <t>CBPB_gpa</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Phạm Tiến Dũng</t>
+          <t>Nguyễn Duy Minh</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B20DCDT033</t>
+          <t>B20DCDT136</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>D20DTMT1</t>
-        </is>
-      </c>
-      <c r="BE2" t="inlineStr">
-        <is>
-          <t>Trần Tuấn Anh</t>
-        </is>
-      </c>
-      <c r="BF2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="BG2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="BH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="BI2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="BJ2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="BK2" t="inlineStr">
-        <is>
-          <t>6.2</t>
+          <t>D20XLTH</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Lê Hải Anh</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>8.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Dương</t>
+          <t>Nguyễn Tiến Quyết</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B20DCDT041</t>
+          <t>B20DCDT172</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>D20DTMT1</t>
-        </is>
-      </c>
-      <c r="BE3" t="inlineStr">
-        <is>
-          <t>Trần Tuấn Anh</t>
-        </is>
-      </c>
-      <c r="BF3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="BG3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="BH3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="BI3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="BJ3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="BK3" t="inlineStr">
-        <is>
-          <t>6.6</t>
+          <t>D20XLTH</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Lê Hải Anh</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>8.0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Đỗ Văn Hảo</t>
+          <t>Cao Duy Hậu</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B20DCDT066</t>
+          <t>B20DCDT067</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>D20DTMT1</t>
-        </is>
-      </c>
-      <c r="BE4" t="inlineStr">
-        <is>
-          <t>Trần Tuấn Anh</t>
-        </is>
-      </c>
-      <c r="BF4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="BG4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="BH4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="BI4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="BJ4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="BK4" t="inlineStr">
-        <is>
-          <t>7.4</t>
+          <t>D20DTRB</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Lê Hải Anh</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -1015,146 +1015,164 @@
           <t>8.0</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Nguyễn Xuân Mai</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>B20DCDT127</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>D20DTMT2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Trần Tuấn Anh</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Trần Tuấn Anh</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>Trần Tuấn Anh</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>Trần Tuấn Anh</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0.9</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/form_collectdata/form_collect/DataCollected/final_new.xlsx
+++ b/form_collectdata/form_collect/DataCollected/final_new.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK3"/>
+  <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
@@ -444,317 +444,317 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Họ và tên</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Mã sinh viên</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Lớp</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>HDCM_uv1-họ tên</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>HDCM_uv1_C3.3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>HDCM_uv1_C4.2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>HDCM_uv1_C5.3</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>HDCM_uv1_C6.3</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>HDCM_uv1_C6.4</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>HDCM_uv1_gpa</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>HDCM_uv2-họ tên</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>HDCM_uv2_C3.3</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>HDCM_uv2_C4.2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>HDCM_uv2_C5.3</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>HDCM_uv2_C6.3</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>HDCM_uv2_C6.4</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>HDCM_uv2_gpa</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>HDCM_uv3-họ tên</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>HDCM_uv3_C3.3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>HDCM_uv3_C4.2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>HDCM_uv3_C5.3</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>HDCM_uv3_C6.3</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>HDCM_uv3_C6.4</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>HDCM_uv3_gpa</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>HDCM_uv4-họ tên</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>HDCM_uv4_C3.3</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>HDCM_uv4_C4.2</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>HDCM_uv4_C5.3</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>HDCM_uv4_C6.3</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>HDCM_uv4_C6.4</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>HDCM_uv4_gpa</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>HDCM_uv5-họ tên</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>HDCM_uv5_C3.3</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>HDCM_uv5_C4.2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>HDCM_uv5_C5.3</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>HDCM_uv5_C6.3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>HDCM_uv5_C6.4</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>HDCM_uv5_gpa</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>CBHD_1-họ tên</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>CBHD_1_C1.1</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>CBHD_1_C1.2</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>CBHD_1_C5.1</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>CBHD_1_gpa</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>CBHD_2-họ tên</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>CBHD_2_C2.1</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>CBHD_2_C2.2</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>CBHD_2_C3.1</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>CBHD_2_C5.2</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>CBHD_2_gpa</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>CBHD_3-họ tên</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>CBHD_3_C2.3</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>CBHD_3_C3.2</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BA1" t="inlineStr">
         <is>
           <t>CBHD_3_C4.1</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BB1" t="inlineStr">
         <is>
           <t>CBHD_3_C6.1</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>CBHD_3_C6.2</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BD1" t="inlineStr">
         <is>
           <t>CBHD_3_gpa</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BE1" t="inlineStr">
         <is>
           <t>CBPB-họ tên</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BF1" t="inlineStr">
         <is>
           <t>CBPB_C2.3</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BG1" t="inlineStr">
         <is>
           <t>CBPB_C3.2</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BH1" t="inlineStr">
         <is>
           <t>CBPB_C4.1</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BI1" t="inlineStr">
         <is>
           <t>CBPB_C6.1</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BJ1" t="inlineStr">
         <is>
           <t>CBPB_C6.2</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BK1" t="inlineStr">
         <is>
           <t>CBPB_gpa</t>
         </is>
@@ -1176,6 +1176,642 @@
       <c r="AL3" t="inlineStr">
         <is>
           <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Phạm Thế Anh</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B20DCDT017</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>D20DTMT1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Nguyễn Trung Hiếu</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Nguyễn Quốc Dinh</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Nguyễn Quốc Uy</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Lê Thanh Bằng</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Đinh Quang Ngọc</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Nguyễn Trung Hiếu</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>Nguyễn Quốc Dinh</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Nguyễn Tiến Duy</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>B20DCDT037</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>D20DTMT1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Nguyễn Trung Hiếu</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Nguyễn Quốc Dinh</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Nguyễn Quốc Uy</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Lê Thanh Bằng</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Đinh Quang Ngọc</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Lê Sỹ Sang</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>B20DCDT175</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>D20DTMT2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Nguyễn Trung Hiếu</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Nguyễn Quốc Dinh</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Nguyễn Quốc Uy</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>Lê Thanh Bằng</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Đinh Quang Ngọc</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>7.0</t>
         </is>
       </c>
     </row>

--- a/form_collectdata/form_collect/DataCollected/final_new.xlsx
+++ b/form_collectdata/form_collect/DataCollected/final_new.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK3"/>
+  <dimension ref="A1:BK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -931,41 +931,6 @@
           <t>D20DTRB</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr">
         <is>
           <t>Mai Thị Nghĩa</t>
@@ -991,26 +956,791 @@
           <t>8.4</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
-      <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="inlineStr"/>
-      <c r="BG3" t="inlineStr"/>
-      <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="inlineStr"/>
-      <c r="BJ3" t="inlineStr"/>
-      <c r="BK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Xuân Tiến Vinh</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B20DCDT227</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>D20XLTH</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>Nguyễn Quang Biên</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>6.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Hướng Thành Nam</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>B20DCDT143</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>D20XLTH</t>
+        </is>
+      </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>Nguyễn Quang Biên</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Đinh Thế Vinh</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>B20DCDT223</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>D20XLTH</t>
+        </is>
+      </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>Nguyễn Quang Biên</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>La Thị Hồng Nhung</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B20DCDT158</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>D20XLTH</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Phạm Hoàng Anh</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Chu Văn Bền</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Trần Thị Thục Linh</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn Nghị</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Nguyễn Trung Tuấn</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B20DCDT190</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>D20XLTH</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Phạm Hoàng Anh</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>6.4</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Chu Văn Bền</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Trần Thị Thục Linh</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn Nghị</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Phạm Thế Anh</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B20DCDT017</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>D20DTMT1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Đinh Quang Ngọc</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>6.4</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="inlineStr"/>
+      <c r="BK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Nguyễn Tiến Duy</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>B20DCDT037</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>D20DTMT1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Đinh Quang Ngọc</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>7.4</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr"/>
+      <c r="BJ10" t="inlineStr"/>
+      <c r="BK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lê Sỹ Sang</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B20DCDT175</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>D20DTMT2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Đinh Quang Ngọc</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
